--- a/data/trans_orig/P16B17-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B17-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0458775D-BE5E-427E-A60B-04ADFE8656AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46C1A735-1A64-4586-9BC0-6986358E87B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{771BF949-230B-4230-93CC-4DC33E50C94D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{93B5E484-E397-4EEC-ACA3-3E5FAD5E22D0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -533,7 +533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D3402E-E7F8-4AE8-B12A-C431779ED0E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685A2184-E64C-46DC-BB48-75F14E888ED5}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1064,7 +1064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D06C1A-795B-43DD-B4F1-B19317711037}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66DDF8A5-DF42-4D1D-80C5-A66CC1B599FD}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1595,7 +1595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8B76B1-89F9-491A-A63B-90307C01B07E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8392F30-173B-4BDA-A0F1-75124C862AF1}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16B17-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B17-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46C1A735-1A64-4586-9BC0-6986358E87B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{059302E4-3CFA-4AA9-8613-AA0B4E325A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{93B5E484-E397-4EEC-ACA3-3E5FAD5E22D0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{38568617-00FE-4B96-9E8B-3EE60AB37D88}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -115,7 +115,7 @@
     <t>90,51%</t>
   </si>
   <si>
-    <t>Porcentaje de hormonas para la menopausia recetados en 2015 (Tasa respuesta: 0,26%)</t>
+    <t>Porcentaje de hormonas para la menopausia recetados en 2016 (Tasa respuesta: 0,26%)</t>
   </si>
   <si>
     <t>82,92%</t>
@@ -533,7 +533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685A2184-E64C-46DC-BB48-75F14E888ED5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1ACFC4-37BB-489C-BD97-37936C748297}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1064,7 +1064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66DDF8A5-DF42-4D1D-80C5-A66CC1B599FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5698231-45F0-439D-A603-6B1A5BA19138}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1595,7 +1595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8392F30-173B-4BDA-A0F1-75124C862AF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965EBDC3-3565-42B4-8F38-F45E23E23D84}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16B17-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B17-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{059302E4-3CFA-4AA9-8613-AA0B4E325A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF739117-BBF7-4346-BF61-E5E7A44A60DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{38568617-00FE-4B96-9E8B-3EE60AB37D88}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A61F3C6C-283A-484A-AD52-FF4A492172D5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -533,7 +533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1ACFC4-37BB-489C-BD97-37936C748297}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811EE900-39BA-4395-8E6F-12F738CAAE7A}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1064,7 +1064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5698231-45F0-439D-A603-6B1A5BA19138}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D52EEB3-C639-4AF9-8109-B4FDB7E0B640}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1595,7 +1595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965EBDC3-3565-42B4-8F38-F45E23E23D84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A13170-810E-45EB-A26C-6468578D7203}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
